--- a/DESIGN/rules/Sample Project/RulesEditor.TestModuleCategoryInheritedProperties.xlsx
+++ b/DESIGN/rules/Sample Project/RulesEditor.TestModuleCategoryInheritedProperties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="101">
   <si>
     <t>InputPar</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
@@ -882,8 +885,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="25.42578125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="27.85546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -1368,7 +1371,7 @@
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="9">
         <v>1</v>
@@ -1459,10 +1462,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="20.7109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="28.28515625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="23.0" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="19.42578125" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:8">
